--- a/امور پرسنلی/مهندس جعفری/کارکرد مهندس جعفری.xlsx
+++ b/امور پرسنلی/مهندس جعفری/کارکرد مهندس جعفری.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="18">
   <si>
     <t>نوع فعالیت</t>
   </si>
@@ -62,6 +62,18 @@
   </si>
   <si>
     <t>1399/08/07</t>
+  </si>
+  <si>
+    <t>1399/09/15</t>
+  </si>
+  <si>
+    <t>انتخاب نام و طراحی لوگوی شرکت</t>
+  </si>
+  <si>
+    <t>مطالعه قوانین و شرایط ثبت شرکت ها</t>
+  </si>
+  <si>
+    <t>1399/09/16</t>
   </si>
 </sst>
 </file>
@@ -777,7 +789,7 @@
   <dimension ref="A1:E41"/>
   <sheetViews>
     <sheetView rightToLeft="1" tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.45"/>
@@ -815,6 +827,28 @@
       </c>
       <c r="D2" s="8">
         <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="B3" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="C3" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="D3" s="8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="B4" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="C4" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="D4" s="8">
+        <v>3</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.45">

--- a/امور پرسنلی/مهندس جعفری/کارکرد مهندس جعفری.xlsx
+++ b/امور پرسنلی/مهندس جعفری/کارکرد مهندس جعفری.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="20">
   <si>
     <t>نوع فعالیت</t>
   </si>
@@ -74,6 +74,12 @@
   </si>
   <si>
     <t>1399/09/16</t>
+  </si>
+  <si>
+    <t>تحقیق پروسه ثبت شرکت ها و اخذ وام</t>
+  </si>
+  <si>
+    <t>1399/09/17</t>
   </si>
 </sst>
 </file>
@@ -789,7 +795,7 @@
   <dimension ref="A1:E41"/>
   <sheetViews>
     <sheetView rightToLeft="1" tabSelected="1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.45"/>
@@ -849,6 +855,17 @@
       </c>
       <c r="D4" s="8">
         <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="B5" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="C5" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="D5" s="8">
+        <v>5</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.45">

--- a/امور پرسنلی/مهندس جعفری/کارکرد مهندس جعفری.xlsx
+++ b/امور پرسنلی/مهندس جعفری/کارکرد مهندس جعفری.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="24">
   <si>
     <t>نوع فعالیت</t>
   </si>
@@ -80,6 +80,18 @@
   </si>
   <si>
     <t>1399/09/17</t>
+  </si>
+  <si>
+    <t>پروسه ثبت و انتخاب نام و لوگو</t>
+  </si>
+  <si>
+    <t>1399/09/18</t>
+  </si>
+  <si>
+    <t>شعارها و اهداف شرکت</t>
+  </si>
+  <si>
+    <t>1399/09/19</t>
   </si>
 </sst>
 </file>
@@ -795,7 +807,7 @@
   <dimension ref="A1:E41"/>
   <sheetViews>
     <sheetView rightToLeft="1" tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.45"/>
@@ -866,6 +878,28 @@
       </c>
       <c r="D5" s="8">
         <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="B6" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="C6" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="D6" s="8">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="B7" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="C7" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="D7" s="8">
+        <v>2</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.45">

--- a/امور پرسنلی/مهندس جعفری/کارکرد مهندس جعفری.xlsx
+++ b/امور پرسنلی/مهندس جعفری/کارکرد مهندس جعفری.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="26">
   <si>
     <t>نوع فعالیت</t>
   </si>
@@ -92,6 +92,12 @@
   </si>
   <si>
     <t>1399/09/19</t>
+  </si>
+  <si>
+    <t>پروسه ثبت و انتخاب موسسه حقوقی رابط</t>
+  </si>
+  <si>
+    <t>1399/09/20</t>
   </si>
 </sst>
 </file>
@@ -807,7 +813,7 @@
   <dimension ref="A1:E41"/>
   <sheetViews>
     <sheetView rightToLeft="1" tabSelected="1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.45"/>
@@ -900,6 +906,17 @@
       </c>
       <c r="D7" s="8">
         <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="B8" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="C8" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="D8" s="8">
+        <v>5</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.45">

--- a/امور پرسنلی/مهندس جعفری/کارکرد مهندس جعفری.xlsx
+++ b/امور پرسنلی/مهندس جعفری/کارکرد مهندس جعفری.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="28">
   <si>
     <t>نوع فعالیت</t>
   </si>
@@ -98,6 +98,12 @@
   </si>
   <si>
     <t>1399/09/20</t>
+  </si>
+  <si>
+    <t>تامین مالی و افتتاح حساب تنخواه</t>
+  </si>
+  <si>
+    <t>1399/09/23</t>
   </si>
 </sst>
 </file>
@@ -813,7 +819,7 @@
   <dimension ref="A1:E41"/>
   <sheetViews>
     <sheetView rightToLeft="1" tabSelected="1" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.45"/>
@@ -921,6 +927,15 @@
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A9" s="10"/>
+      <c r="B9" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="C9" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="D9" s="8">
+        <v>4</v>
+      </c>
       <c r="E9" s="8"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.45">

--- a/امور پرسنلی/مهندس جعفری/کارکرد مهندس جعفری.xlsx
+++ b/امور پرسنلی/مهندس جعفری/کارکرد مهندس جعفری.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="42">
   <si>
     <t>نوع فعالیت</t>
   </si>
@@ -104,6 +104,48 @@
   </si>
   <si>
     <t>1399/09/23</t>
+  </si>
+  <si>
+    <t>تهیه مدارک ثبت شرکت</t>
+  </si>
+  <si>
+    <t>1399/09/24</t>
+  </si>
+  <si>
+    <t>بررسی حساب های بانکی</t>
+  </si>
+  <si>
+    <t>1399/09/25</t>
+  </si>
+  <si>
+    <t>تست نرم افزار</t>
+  </si>
+  <si>
+    <t>1399/09/26</t>
+  </si>
+  <si>
+    <t>پیگیری ثبت شرکت</t>
+  </si>
+  <si>
+    <t>1399/09/30</t>
+  </si>
+  <si>
+    <t>1399/10/01</t>
+  </si>
+  <si>
+    <t>1399/10/02</t>
+  </si>
+  <si>
+    <t>1399/10/03</t>
+  </si>
+  <si>
+    <t>1399/10/06</t>
+  </si>
+  <si>
+    <t>1399/10/07</t>
+  </si>
+  <si>
+    <t>1399/10/08</t>
   </si>
 </sst>
 </file>
@@ -819,7 +861,7 @@
   <dimension ref="A1:E41"/>
   <sheetViews>
     <sheetView rightToLeft="1" tabSelected="1" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.45"/>
@@ -940,42 +982,132 @@
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A10" s="10"/>
+      <c r="B10" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="C10" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="D10" s="8">
+        <v>5</v>
+      </c>
       <c r="E10" s="8"/>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A11" s="10"/>
+      <c r="B11" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="C11" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="D11" s="8">
+        <v>3</v>
+      </c>
       <c r="E11" s="8"/>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A12" s="10"/>
+      <c r="B12" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="C12" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="D12" s="8">
+        <v>2</v>
+      </c>
       <c r="E12" s="8"/>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A13" s="10"/>
+      <c r="B13" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="C13" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="D13" s="8">
+        <v>4</v>
+      </c>
       <c r="E13" s="8"/>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A14" s="10"/>
+      <c r="B14" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="C14" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="D14" s="8">
+        <v>4</v>
+      </c>
       <c r="E14" s="8"/>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A15" s="10"/>
+      <c r="B15" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="C15" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="D15" s="8">
+        <v>4</v>
+      </c>
       <c r="E15" s="8"/>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A16" s="10"/>
+      <c r="B16" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="C16" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="D16" s="8">
+        <v>4</v>
+      </c>
       <c r="E16" s="8"/>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A17" s="10"/>
+      <c r="B17" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="C17" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="D17" s="8">
+        <v>4</v>
+      </c>
       <c r="E17" s="8"/>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A18" s="10"/>
+      <c r="B18" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="C18" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="D18" s="8">
+        <v>4</v>
+      </c>
       <c r="E18" s="8"/>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A19" s="10"/>
+      <c r="B19" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="C19" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="D19" s="8">
+        <v>4</v>
+      </c>
       <c r="E19" s="8"/>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.45">
